--- a/src/main/resources/ДЗ4.xlsx
+++ b/src/main/resources/ДЗ4.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="420" yWindow="828" windowWidth="21468" windowHeight="9192"/>
+    <workbookView xWindow="420" yWindow="828" windowWidth="21468" windowHeight="9192" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Вариант 1" sheetId="1" r:id="rId1"/>
@@ -372,7 +372,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -7126,10 +7126,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C96"/>
+  <dimension ref="A1:C65"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E91" sqref="E91"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F70" sqref="F70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7847,239 +7847,6 @@
       </c>
       <c r="C65">
         <v>-5.4092857678578774</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A66">
-        <v>0.74579944321885705</v>
-      </c>
-      <c r="C66">
-        <v>4.4838140606805066</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A67">
-        <v>-0.93829370383173227</v>
-      </c>
-      <c r="C67">
-        <v>4.6085604127436248</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A68">
-        <v>0.72852103784680367</v>
-      </c>
-      <c r="C68">
-        <v>2.3238140877155589</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A69">
-        <v>-0.87632453348487616</v>
-      </c>
-      <c r="C69">
-        <v>1.8193648630738588</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A70">
-        <v>0.66987115051597357</v>
-      </c>
-      <c r="C70">
-        <v>3.4988339390261309</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A71">
-        <v>0.57747174287214875</v>
-      </c>
-      <c r="C71">
-        <v>4.7654896274804059</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A72">
-        <v>0.32245223596692085</v>
-      </c>
-      <c r="C72">
-        <v>1.0243667678413384</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A73">
-        <v>-0.77178766438737512</v>
-      </c>
-      <c r="C73">
-        <v>-3.4509695161347134</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A74">
-        <v>-0.16949805105105042</v>
-      </c>
-      <c r="C74">
-        <v>0.63053928307480778</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A75">
-        <v>0.15976217202842236</v>
-      </c>
-      <c r="C75">
-        <v>-0.73276278597211908</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A76">
-        <v>-0.39100857637822628</v>
-      </c>
-      <c r="C76">
-        <v>-0.25973917881307607</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A77">
-        <v>0.89577847672626376</v>
-      </c>
-      <c r="C77">
-        <v>-2.3882022930905187</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A78">
-        <v>0.85644218558445573</v>
-      </c>
-      <c r="C78">
-        <v>0.28247918590619681</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A79">
-        <v>0.66250166576355696</v>
-      </c>
-      <c r="C79">
-        <v>6.1810423732708699</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A80">
-        <v>-0.67982739536091685</v>
-      </c>
-      <c r="C80">
-        <v>0.39222087523832316</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A81">
-        <v>0.89041396183893085</v>
-      </c>
-      <c r="C81">
-        <v>2.1962539484456172</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A82">
-        <v>-0.83595153968781233</v>
-      </c>
-      <c r="C82">
-        <v>1.5910845827649069</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A83">
-        <v>-0.94862987333908677</v>
-      </c>
-      <c r="C83">
-        <v>1.0278223869726009</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A84">
-        <v>0.13916152063757181</v>
-      </c>
-      <c r="C84">
-        <v>-1.1622330169627246</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A85">
-        <v>-0.57500895811244845</v>
-      </c>
-      <c r="C85">
-        <v>-4.1856480592573639</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A86">
-        <v>0.74684106279164553</v>
-      </c>
-      <c r="C86">
-        <v>4.9165554958408748</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A87">
-        <v>-0.60450443904846907</v>
-      </c>
-      <c r="C87">
-        <v>-1.6028850072498058</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A88">
-        <v>0.97848660824820399</v>
-      </c>
-      <c r="C88">
-        <v>5.6705179374139405</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A89">
-        <v>0.71130752703174949</v>
-      </c>
-      <c r="C89">
-        <v>3.6237825996778605</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A90">
-        <v>-0.22101033898070455</v>
-      </c>
-      <c r="C90">
-        <v>0.63030114342070198</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A91">
-        <v>-0.18954254686832428</v>
-      </c>
-      <c r="C91">
-        <v>7.34007393652033</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C92">
-        <v>5.3913070104862815</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C93">
-        <v>1.3766429619602181</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C94">
-        <v>-1.3442542646786197</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C95">
-        <v>5.1838650542895479</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C96">
-        <v>7.1082720778986364E-2</v>
       </c>
     </row>
   </sheetData>
